--- a/data/trans_orig/P78A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80148CAE-9749-477D-A6C2-D52161F890E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{274E1B6C-A522-4FB2-86A4-A3063A696205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{99FB75F6-EA71-4673-8303-F8C8251777CC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0CD07FE0-E28B-4990-840C-C9CA6BAE9B9E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población según si ha trabajado anteriormente en 2023 (Tasa respuesta: 13,57%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>83,39%</t>
   </si>
   <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>16,61%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>76,3%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,7 +194,7 @@
     <t>89,36%</t>
   </si>
   <si>
-    <t>50,6%</t>
+    <t>55,47%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -203,19 +203,19 @@
     <t>85,66%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>10,64%</t>
@@ -224,73 +224,79 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>49,4%</t>
+    <t>44,53%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>91,28%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>8,72%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1175BBF-BBDB-4DAD-BEF8-A072A2BFD39B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFF7CD-CD71-4C5C-8406-23C2B6833F8F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1327,10 +1333,10 @@
         <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1351,13 @@
         <v>26172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -1360,13 +1366,13 @@
         <v>99254</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -1375,13 +1381,13 @@
         <v>125426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{274E1B6C-A522-4FB2-86A4-A3063A696205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D081DB-18D0-4952-86A2-D374DFC8583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0CD07FE0-E28B-4990-840C-C9CA6BAE9B9E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6BA7BC6-D2EF-489B-9B39-9525CD1BC35E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CFF7CD-CD71-4C5C-8406-23C2B6833F8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D0DC01-1E12-4817-A743-9637E87B95C6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D081DB-18D0-4952-86A2-D374DFC8583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BA6586-7EDD-409F-80D0-EF98D526E143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6BA7BC6-D2EF-489B-9B39-9525CD1BC35E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AE8EF46-4E1E-4291-BFA2-46C829B89F79}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
-  <si>
-    <t>Población según si ha trabajado anteriormente en 2023 (Tasa respuesta: 13,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+  <si>
+    <t>Población según si la persona sustentadora principal ha trabajado anteriormente en 2023 (Tasa respuesta: 57,62%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D0DC01-1E12-4817-A743-9637E87B95C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F9EEA5-9F71-46BD-A575-201A49A36D02}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -829,10 +823,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>542</v>
       </c>
       <c r="D4" s="7">
-        <v>13263</v>
+        <v>401832</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -844,10 +838,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>537</v>
+        <v>1094</v>
       </c>
       <c r="I4" s="7">
-        <v>302048</v>
+        <v>603223</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -859,10 +853,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>550</v>
+        <v>1636</v>
       </c>
       <c r="N4" s="7">
-        <v>315311</v>
+        <v>1005056</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -880,10 +874,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>2641</v>
+        <v>5604</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -895,10 +889,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="I5" s="7">
-        <v>62276</v>
+        <v>145164</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -910,10 +904,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="N5" s="7">
-        <v>64917</v>
+        <v>150768</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -931,10 +925,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>549</v>
       </c>
       <c r="D6" s="7">
-        <v>15904</v>
+        <v>407436</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -946,10 +940,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>636</v>
+        <v>1311</v>
       </c>
       <c r="I6" s="7">
-        <v>364324</v>
+        <v>748387</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -961,10 +955,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>652</v>
+        <v>1860</v>
       </c>
       <c r="N6" s="7">
-        <v>380228</v>
+        <v>1155824</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -984,10 +978,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>806</v>
       </c>
       <c r="D7" s="7">
-        <v>70585</v>
+        <v>728276</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -999,10 +993,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>374</v>
+        <v>1331</v>
       </c>
       <c r="I7" s="7">
-        <v>359265</v>
+        <v>980309</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1014,10 +1008,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>417</v>
+        <v>2137</v>
       </c>
       <c r="N7" s="7">
-        <v>429850</v>
+        <v>1708585</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1035,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D8" s="7">
-        <v>21919</v>
+        <v>191314</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1050,10 +1044,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>339</v>
       </c>
       <c r="I8" s="7">
-        <v>32666</v>
+        <v>333202</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1065,10 +1059,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>64</v>
+        <v>428</v>
       </c>
       <c r="N8" s="7">
-        <v>54585</v>
+        <v>524515</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1086,10 +1080,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>61</v>
+        <v>895</v>
       </c>
       <c r="D9" s="7">
-        <v>92504</v>
+        <v>919590</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1101,10 +1095,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>420</v>
+        <v>1670</v>
       </c>
       <c r="I9" s="7">
-        <v>391931</v>
+        <v>1313511</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1110,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>481</v>
+        <v>2565</v>
       </c>
       <c r="N9" s="7">
-        <v>484435</v>
+        <v>2233100</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1139,10 +1133,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="D10" s="7">
-        <v>13534</v>
+        <v>181338</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1154,10 +1148,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>32</v>
+        <v>316</v>
       </c>
       <c r="I10" s="7">
-        <v>25763</v>
+        <v>199403</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1169,19 +1163,19 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>41</v>
+        <v>545</v>
       </c>
       <c r="N10" s="7">
-        <v>39298</v>
+        <v>380741</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,49 +1184,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>1612</v>
+        <v>25449</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>39</v>
+      </c>
+      <c r="I11" s="7">
+        <v>42431</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4313</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>54</v>
+      </c>
+      <c r="N11" s="7">
+        <v>67880</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5924</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,10 +1235,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="D12" s="7">
-        <v>15146</v>
+        <v>206787</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1256,10 +1250,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="I12" s="7">
-        <v>30076</v>
+        <v>241834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1271,10 +1265,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>48</v>
+        <v>599</v>
       </c>
       <c r="N12" s="7">
-        <v>45222</v>
+        <v>448621</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1294,49 +1288,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>65</v>
+        <v>1577</v>
       </c>
       <c r="D13" s="7">
-        <v>97383</v>
+        <v>1311446</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>2741</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1782936</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>943</v>
-      </c>
-      <c r="I13" s="7">
-        <v>687077</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>4318</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3094383</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>1008</v>
-      </c>
-      <c r="N13" s="7">
-        <v>784460</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,49 +1339,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="D14" s="7">
-        <v>26172</v>
+        <v>222367</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>595</v>
+      </c>
+      <c r="I14" s="7">
+        <v>520796</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>151</v>
-      </c>
-      <c r="I14" s="7">
-        <v>99254</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>706</v>
+      </c>
+      <c r="N14" s="7">
+        <v>743163</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>173</v>
-      </c>
-      <c r="N14" s="7">
-        <v>125426</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,10 +1390,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>87</v>
+        <v>1688</v>
       </c>
       <c r="D15" s="7">
-        <v>123555</v>
+        <v>1533813</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1411,10 +1405,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1094</v>
+        <v>3336</v>
       </c>
       <c r="I15" s="7">
-        <v>786331</v>
+        <v>2303732</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1426,10 +1420,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1181</v>
+        <v>5024</v>
       </c>
       <c r="N15" s="7">
-        <v>909886</v>
+        <v>3837546</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BA6586-7EDD-409F-80D0-EF98D526E143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33989ED7-DB1B-4666-9285-EC4269ADC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AE8EF46-4E1E-4291-BFA2-46C829B89F79}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B22C44D7-4D6F-4E3E-888D-E024C4D0468C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>Población según si la persona sustentadora principal ha trabajado anteriormente en 2023 (Tasa respuesta: 57,62%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,151 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F9EEA5-9F71-46BD-A575-201A49A36D02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B94CA9-A669-4241-B144-BD2224A34DB9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +814,7 @@
         <v>542</v>
       </c>
       <c r="D4" s="7">
-        <v>401832</v>
+        <v>377681</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +829,7 @@
         <v>1094</v>
       </c>
       <c r="I4" s="7">
-        <v>603223</v>
+        <v>547822</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +844,7 @@
         <v>1636</v>
       </c>
       <c r="N4" s="7">
-        <v>1005056</v>
+        <v>925503</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +865,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>5604</v>
+        <v>5155</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +880,7 @@
         <v>217</v>
       </c>
       <c r="I5" s="7">
-        <v>145164</v>
+        <v>128757</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +895,7 @@
         <v>224</v>
       </c>
       <c r="N5" s="7">
-        <v>150768</v>
+        <v>133912</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +916,7 @@
         <v>549</v>
       </c>
       <c r="D6" s="7">
-        <v>407436</v>
+        <v>382836</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +931,7 @@
         <v>1311</v>
       </c>
       <c r="I6" s="7">
-        <v>748387</v>
+        <v>676579</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +946,7 @@
         <v>1860</v>
       </c>
       <c r="N6" s="7">
-        <v>1155824</v>
+        <v>1059415</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +969,7 @@
         <v>806</v>
       </c>
       <c r="D7" s="7">
-        <v>728276</v>
+        <v>699384</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,31 +984,31 @@
         <v>1331</v>
       </c>
       <c r="I7" s="7">
-        <v>980309</v>
+        <v>1007515</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>2137</v>
       </c>
       <c r="N7" s="7">
-        <v>1708585</v>
+        <v>1706899</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1032,46 +1020,46 @@
         <v>89</v>
       </c>
       <c r="D8" s="7">
-        <v>191314</v>
+        <v>202712</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>339</v>
       </c>
       <c r="I8" s="7">
-        <v>333202</v>
+        <v>292054</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>428</v>
       </c>
       <c r="N8" s="7">
-        <v>524515</v>
+        <v>494766</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1083,7 +1071,7 @@
         <v>895</v>
       </c>
       <c r="D9" s="7">
-        <v>919590</v>
+        <v>902096</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1086,7 @@
         <v>1670</v>
       </c>
       <c r="I9" s="7">
-        <v>1313511</v>
+        <v>1299569</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1101,7 @@
         <v>2565</v>
       </c>
       <c r="N9" s="7">
-        <v>2233100</v>
+        <v>2201665</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1127,7 +1115,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1136,46 +1124,46 @@
         <v>229</v>
       </c>
       <c r="D10" s="7">
-        <v>181338</v>
+        <v>172112</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>316</v>
       </c>
       <c r="I10" s="7">
-        <v>199403</v>
+        <v>184937</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>545</v>
       </c>
       <c r="N10" s="7">
-        <v>380741</v>
+        <v>357049</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1187,46 +1175,46 @@
         <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>25449</v>
+        <v>23712</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>42431</v>
+        <v>37671</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
       </c>
       <c r="N11" s="7">
-        <v>67880</v>
+        <v>61383</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,7 +1226,7 @@
         <v>244</v>
       </c>
       <c r="D12" s="7">
-        <v>206787</v>
+        <v>195824</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1241,7 @@
         <v>355</v>
       </c>
       <c r="I12" s="7">
-        <v>241834</v>
+        <v>222608</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1256,7 @@
         <v>599</v>
       </c>
       <c r="N12" s="7">
-        <v>448621</v>
+        <v>418432</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,46 +1279,46 @@
         <v>1577</v>
       </c>
       <c r="D13" s="7">
-        <v>1311446</v>
+        <v>1249177</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>2741</v>
       </c>
       <c r="I13" s="7">
-        <v>1782936</v>
+        <v>1740273</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="M13" s="7">
         <v>4318</v>
       </c>
       <c r="N13" s="7">
-        <v>3094383</v>
+        <v>2989451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,46 +1330,46 @@
         <v>111</v>
       </c>
       <c r="D14" s="7">
-        <v>222367</v>
+        <v>231579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>595</v>
       </c>
       <c r="I14" s="7">
-        <v>520796</v>
+        <v>458483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>706</v>
       </c>
       <c r="N14" s="7">
-        <v>743163</v>
+        <v>690061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1381,7 @@
         <v>1688</v>
       </c>
       <c r="D15" s="7">
-        <v>1533813</v>
+        <v>1480756</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1396,7 @@
         <v>3336</v>
       </c>
       <c r="I15" s="7">
-        <v>2303732</v>
+        <v>2198756</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1411,7 @@
         <v>5024</v>
       </c>
       <c r="N15" s="7">
-        <v>3837546</v>
+        <v>3679512</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1425,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
